--- a/note/polly/polly-benchmark/MGCC Benchmarks Results Diff_multi_Base-mavell-llvm-2015-3-18_BG2_1Ghz-1GMem_opt_New-polly-2015-3-25_BG2_1Ghz-1GMem_opt.xlsx
+++ b/note/polly/polly-benchmark/MGCC Benchmarks Results Diff_multi_Base-mavell-llvm-2015-3-18_BG2_1Ghz-1GMem_opt_New-polly-2015-3-25_BG2_1Ghz-1GMem_opt.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="benchmark_run_base" localSheetId="1">base!$A$1:$F$687</definedName>
-    <definedName name="benchmark_run_new" localSheetId="2">new!$A$1:$E$558</definedName>
+    <definedName name="benchmark_run_new" localSheetId="2">new!$A$1:$F$688</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="104">
   <si>
     <t>Benchmarks</t>
   </si>
@@ -357,12 +357,16 @@
   <si>
     <t>multibenchmini1e_linux_armadaxp_llvm3.4_o3_arm_timer</t>
   </si>
+  <si>
+    <t>multibenchmini1e_linux_armadaxp_llvm3.4_o3_arm_timer cannot be built in polly, so use Marvell toolchain's data instead.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +406,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -424,12 +436,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,7 +793,7 @@
   <dimension ref="A1:I908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -831,6 +844,9 @@
         <f t="shared" ref="F3:F4" si="0">IF(B3=0, "", $D3/$B3-1)</f>
         <v/>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="str">
@@ -10231,13 +10247,13 @@
         <f>base!B561</f>
         <v>322.49741999999998</v>
       </c>
-      <c r="D551" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F551" s="1" t="e">
+      <c r="D551">
+        <f>new!B561</f>
+        <v>322.49741999999998</v>
+      </c>
+      <c r="F551" s="1">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -10249,13 +10265,13 @@
         <f>base!B562</f>
         <v>24.578075999999999</v>
       </c>
-      <c r="D552" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F552" s="1" t="e">
+      <c r="D552">
+        <f>new!B562</f>
+        <v>24.578075999999999</v>
+      </c>
+      <c r="F552" s="1">
         <f t="shared" ref="F552:F553" si="48">IF(B552=0, "", $D552/$B552-1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="14.25" customHeight="1">
@@ -10267,13 +10283,13 @@
         <f>base!B563</f>
         <v>14.649868</v>
       </c>
-      <c r="D553" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F553" s="1" t="e">
+      <c r="D553">
+        <f>new!B563</f>
+        <v>14.649868</v>
+      </c>
+      <c r="F553" s="1">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -10285,13 +10301,13 @@
         <f>base!B564</f>
         <v>20.242915</v>
       </c>
-      <c r="D554" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F554" s="1" t="e">
+      <c r="D554">
+        <f>new!B564</f>
+        <v>20.242915</v>
+      </c>
+      <c r="F554" s="1">
         <f t="shared" ref="F554:F557" si="49">IF(B554=0, "", $D554/$B554-1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="14.25" customHeight="1">
@@ -10303,13 +10319,13 @@
         <f>base!B565</f>
         <v>4.0241449999999999</v>
       </c>
-      <c r="D555" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F555" s="1" t="e">
+      <c r="D555">
+        <f>new!B565</f>
+        <v>4.0241449999999999</v>
+      </c>
+      <c r="F555" s="1">
         <f t="shared" si="49"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -10321,13 +10337,13 @@
         <f>base!B566</f>
         <v>4.0306329999999999</v>
       </c>
-      <c r="D556" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F556" s="1" t="e">
+      <c r="D556">
+        <f>new!B566</f>
+        <v>4.0306329999999999</v>
+      </c>
+      <c r="F556" s="1">
         <f t="shared" si="49"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="14.25" customHeight="1">
@@ -10339,13 +10355,13 @@
         <f>base!B567</f>
         <v>0.30395100000000003</v>
       </c>
-      <c r="D557" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F557" s="1" t="e">
+      <c r="D557">
+        <f>new!B567</f>
+        <v>0.30395100000000003</v>
+      </c>
+      <c r="F557" s="1">
         <f t="shared" si="49"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -10357,13 +10373,13 @@
         <f>base!B568</f>
         <v>5.1549050000000003</v>
       </c>
-      <c r="D558" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F558" s="1" t="e">
+      <c r="D558">
+        <f>new!B568</f>
+        <v>5.1549050000000003</v>
+      </c>
+      <c r="F558" s="1">
         <f t="shared" ref="F558:F577" si="50">IF(B558=0, "", $D558/$B558-1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="14.25" customHeight="1">
@@ -10375,13 +10391,13 @@
         <f>base!B569</f>
         <v>31.877590000000001</v>
       </c>
-      <c r="D559" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F559" s="1" t="e">
+      <c r="D559">
+        <f>new!B569</f>
+        <v>31.877590000000001</v>
+      </c>
+      <c r="F559" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -10393,13 +10409,13 @@
         <f>base!B570</f>
         <v>16.903313000000001</v>
       </c>
-      <c r="D560" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F560" s="1" t="e">
+      <c r="D560">
+        <f>new!B570</f>
+        <v>16.903313000000001</v>
+      </c>
+      <c r="F560" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="14.25" customHeight="1">
@@ -10411,13 +10427,13 @@
         <f>base!B571</f>
         <v>4.8320850000000002</v>
       </c>
-      <c r="D561" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F561" s="1" t="e">
+      <c r="D561">
+        <f>new!B571</f>
+        <v>4.8320850000000002</v>
+      </c>
+      <c r="F561" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -10429,13 +10445,13 @@
         <f>base!B572</f>
         <v>0.44484000000000001</v>
       </c>
-      <c r="D562" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F562" s="1" t="e">
+      <c r="D562">
+        <f>new!B572</f>
+        <v>0.44484000000000001</v>
+      </c>
+      <c r="F562" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="15.75" customHeight="1">
@@ -10447,13 +10463,13 @@
         <f>base!B573</f>
         <v>6.4963189999999997</v>
       </c>
-      <c r="D563" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F563" s="1" t="e">
+      <c r="D563">
+        <f>new!B573</f>
+        <v>6.4963189999999997</v>
+      </c>
+      <c r="F563" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -10465,13 +10481,13 @@
         <f>base!B574</f>
         <v>8.01539</v>
       </c>
-      <c r="D564" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F564" s="1" t="e">
+      <c r="D564">
+        <f>new!B574</f>
+        <v>8.01539</v>
+      </c>
+      <c r="F564" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="14.25" customHeight="1">
@@ -10483,13 +10499,13 @@
         <f>base!B575</f>
         <v>33.350008000000003</v>
       </c>
-      <c r="D565" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F565" s="1" t="e">
+      <c r="D565">
+        <f>new!B575</f>
+        <v>33.350008000000003</v>
+      </c>
+      <c r="F565" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -10501,13 +10517,13 @@
         <f>base!B576</f>
         <v>36.446469</v>
       </c>
-      <c r="D566" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F566" s="1" t="e">
+      <c r="D566">
+        <f>new!B576</f>
+        <v>36.446469</v>
+      </c>
+      <c r="F566" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:6" ht="14.25" customHeight="1">
@@ -10519,13 +10535,13 @@
         <f>base!B577</f>
         <v>0.5</v>
       </c>
-      <c r="D567" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F567" s="1" t="e">
+      <c r="D567">
+        <f>new!B577</f>
+        <v>0.5</v>
+      </c>
+      <c r="F567" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -10537,13 +10553,13 @@
         <f>base!B578</f>
         <v>27.457440999999999</v>
       </c>
-      <c r="D568" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F568" s="1" t="e">
+      <c r="D568">
+        <f>new!B578</f>
+        <v>27.457440999999999</v>
+      </c>
+      <c r="F568" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="14.25" customHeight="1">
@@ -10555,13 +10571,13 @@
         <f>base!B579</f>
         <v>323.16442599999999</v>
       </c>
-      <c r="D569" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F569" s="1" t="e">
+      <c r="D569">
+        <f>new!B579</f>
+        <v>323.16442599999999</v>
+      </c>
+      <c r="F569" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -10573,13 +10589,13 @@
         <f>base!B580</f>
         <v>321.17163399999998</v>
       </c>
-      <c r="D570" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F570" s="1" t="e">
+      <c r="D570">
+        <f>new!B580</f>
+        <v>321.17163399999998</v>
+      </c>
+      <c r="F570" s="1">
         <f t="shared" ref="F570:F574" si="51">IF(B570=0, "", $D570/$B570-1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:6" ht="14.25" customHeight="1">
@@ -10591,13 +10607,13 @@
         <f>base!B581</f>
         <v>24.630541999999998</v>
       </c>
-      <c r="D571" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F571" s="1" t="e">
+      <c r="D571">
+        <f>new!B581</f>
+        <v>24.630541999999998</v>
+      </c>
+      <c r="F571" s="1">
         <f t="shared" si="51"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -10609,13 +10625,13 @@
         <f>base!B582</f>
         <v>14.647722</v>
       </c>
-      <c r="D572" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F572" s="1" t="e">
+      <c r="D572">
+        <f>new!B582</f>
+        <v>14.647722</v>
+      </c>
+      <c r="F572" s="1">
         <f t="shared" si="51"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="14.25" customHeight="1">
@@ -10627,13 +10643,13 @@
         <f>base!B583</f>
         <v>20.275749999999999</v>
       </c>
-      <c r="D573" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F573" s="1" t="e">
+      <c r="D573">
+        <f>new!B583</f>
+        <v>20.275749999999999</v>
+      </c>
+      <c r="F573" s="1">
         <f t="shared" si="51"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -10645,13 +10661,13 @@
         <f>base!B584</f>
         <v>4.022526</v>
       </c>
-      <c r="D574" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F574" s="1" t="e">
+      <c r="D574">
+        <f>new!B584</f>
+        <v>4.022526</v>
+      </c>
+      <c r="F574" s="1">
         <f t="shared" si="51"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="14.25" customHeight="1">
@@ -10663,13 +10679,13 @@
         <f>base!B585</f>
         <v>4.0316080000000003</v>
       </c>
-      <c r="D575" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F575" s="1" t="e">
+      <c r="D575">
+        <f>new!B585</f>
+        <v>4.0316080000000003</v>
+      </c>
+      <c r="F575" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -10681,13 +10697,13 @@
         <f>base!B586</f>
         <v>0.29961599999999999</v>
       </c>
-      <c r="D576" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F576" s="1" t="e">
+      <c r="D576">
+        <f>new!B586</f>
+        <v>0.29961599999999999</v>
+      </c>
+      <c r="F576" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="14.25" customHeight="1">
@@ -10699,13 +10715,13 @@
         <f>base!B587</f>
         <v>5.1551710000000002</v>
       </c>
-      <c r="D577" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F577" s="1" t="e">
+      <c r="D577">
+        <f>new!B587</f>
+        <v>5.1551710000000002</v>
+      </c>
+      <c r="F577" s="1">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -10717,13 +10733,13 @@
         <f>base!B588</f>
         <v>18.528811999999999</v>
       </c>
-      <c r="D578" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F578" s="1" t="e">
+      <c r="D578">
+        <f>new!B588</f>
+        <v>18.528811999999999</v>
+      </c>
+      <c r="F578" s="1">
         <f t="shared" ref="F578" si="52">IF(B578=0, "", $D578/$B578-1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -10735,13 +10751,13 @@
         <f>base!B589</f>
         <v>18.535681</v>
       </c>
-      <c r="D579" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F579" s="1" t="e">
+      <c r="D579">
+        <f>new!B589</f>
+        <v>18.535681</v>
+      </c>
+      <c r="F579" s="1">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -10753,13 +10769,13 @@
         <f>base!B590</f>
         <v>16.675930999999999</v>
       </c>
-      <c r="D580" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F580" s="1" t="e">
+      <c r="D580">
+        <f>new!B590</f>
+        <v>16.675930999999999</v>
+      </c>
+      <c r="F580" s="1">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -10771,13 +10787,13 @@
         <f>base!B591</f>
         <v>423728.81355899997</v>
       </c>
-      <c r="D581" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F581" s="1" t="e">
+      <c r="D581">
+        <f>new!B591</f>
+        <v>423728.81355899997</v>
+      </c>
+      <c r="F581" s="1">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -10796,13 +10812,13 @@
         <f>base!B593</f>
         <v>324.12809499999997</v>
       </c>
-      <c r="D583" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F583" s="1" t="e">
+      <c r="D583">
+        <f>new!B593</f>
+        <v>324.12809499999997</v>
+      </c>
+      <c r="F583" s="1">
         <f t="shared" ref="F583:F613" si="53">IF(B583=0, "", $D583/$B583-1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -10814,13 +10830,13 @@
         <f>base!B594</f>
         <v>24.521823999999999</v>
       </c>
-      <c r="D584" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F584" s="1" t="e">
+      <c r="D584">
+        <f>new!B594</f>
+        <v>24.521823999999999</v>
+      </c>
+      <c r="F584" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="14.25" customHeight="1">
@@ -10832,13 +10848,13 @@
         <f>base!B595</f>
         <v>14.65631</v>
       </c>
-      <c r="D585" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F585" s="1" t="e">
+      <c r="D585">
+        <f>new!B595</f>
+        <v>14.65631</v>
+      </c>
+      <c r="F585" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -10850,13 +10866,13 @@
         <f>base!B596</f>
         <v>20.281918999999998</v>
       </c>
-      <c r="D586" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F586" s="1" t="e">
+      <c r="D586">
+        <f>new!B596</f>
+        <v>20.281918999999998</v>
+      </c>
+      <c r="F586" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:6" ht="14.25" customHeight="1">
@@ -10868,13 +10884,13 @@
         <f>base!B597</f>
         <v>4.0241449999999999</v>
       </c>
-      <c r="D587" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F587" s="1" t="e">
+      <c r="D587">
+        <f>new!B597</f>
+        <v>4.0241449999999999</v>
+      </c>
+      <c r="F587" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -10886,13 +10902,13 @@
         <f>base!B598</f>
         <v>4.0312830000000002</v>
       </c>
-      <c r="D588" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F588" s="1" t="e">
+      <c r="D588">
+        <f>new!B598</f>
+        <v>4.0312830000000002</v>
+      </c>
+      <c r="F588" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="14.25" customHeight="1">
@@ -10904,13 +10920,13 @@
         <f>base!B599</f>
         <v>0.30119600000000002</v>
       </c>
-      <c r="D589" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F589" s="1" t="e">
+      <c r="D589">
+        <f>new!B599</f>
+        <v>0.30119600000000002</v>
+      </c>
+      <c r="F589" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -10922,13 +10938,13 @@
         <f>base!B600</f>
         <v>5.1549050000000003</v>
       </c>
-      <c r="D590" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F590" s="1" t="e">
+      <c r="D590">
+        <f>new!B600</f>
+        <v>5.1549050000000003</v>
+      </c>
+      <c r="F590" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="14.25" customHeight="1">
@@ -10940,13 +10956,13 @@
         <f>base!B601</f>
         <v>22.706630000000001</v>
       </c>
-      <c r="D591" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F591" s="1" t="e">
+      <c r="D591">
+        <f>new!B601</f>
+        <v>22.706630000000001</v>
+      </c>
+      <c r="F591" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -10958,13 +10974,13 @@
         <f>base!B602</f>
         <v>9.9403579999999998</v>
       </c>
-      <c r="D592" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F592" s="1" t="e">
+      <c r="D592">
+        <f>new!B602</f>
+        <v>9.9403579999999998</v>
+      </c>
+      <c r="F592" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:6" ht="14.25" customHeight="1">
@@ -10976,13 +10992,13 @@
         <f>base!B603</f>
         <v>2.509725</v>
       </c>
-      <c r="D593" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F593" s="1" t="e">
+      <c r="D593">
+        <f>new!B603</f>
+        <v>2.509725</v>
+      </c>
+      <c r="F593" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -10994,13 +11010,13 @@
         <f>base!B604</f>
         <v>0.27777800000000002</v>
       </c>
-      <c r="D594" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F594" s="1" t="e">
+      <c r="D594">
+        <f>new!B604</f>
+        <v>0.27777800000000002</v>
+      </c>
+      <c r="F594" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:6" ht="15.75" customHeight="1">
@@ -11012,13 +11028,13 @@
         <f>base!B605</f>
         <v>3.3568310000000001</v>
       </c>
-      <c r="D595" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F595" s="1" t="e">
+      <c r="D595">
+        <f>new!B605</f>
+        <v>3.3568310000000001</v>
+      </c>
+      <c r="F595" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -11030,13 +11046,13 @@
         <f>base!B606</f>
         <v>4.0246310000000003</v>
       </c>
-      <c r="D596" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F596" s="1" t="e">
+      <c r="D596">
+        <f>new!B606</f>
+        <v>4.0246310000000003</v>
+      </c>
+      <c r="F596" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:6" ht="14.25" customHeight="1">
@@ -11048,13 +11064,13 @@
         <f>base!B607</f>
         <v>20.265478000000002</v>
       </c>
-      <c r="D597" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F597" s="1" t="e">
+      <c r="D597">
+        <f>new!B607</f>
+        <v>20.265478000000002</v>
+      </c>
+      <c r="F597" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -11066,13 +11082,13 @@
         <f>base!B608</f>
         <v>18.26484</v>
       </c>
-      <c r="D598" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F598" s="1" t="e">
+      <c r="D598">
+        <f>new!B608</f>
+        <v>18.26484</v>
+      </c>
+      <c r="F598" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:6" ht="14.25" customHeight="1">
@@ -11084,13 +11100,13 @@
         <f>base!B609</f>
         <v>0.303367</v>
       </c>
-      <c r="D599" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F599" s="1" t="e">
+      <c r="D599">
+        <f>new!B609</f>
+        <v>0.303367</v>
+      </c>
+      <c r="F599" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -11102,13 +11118,13 @@
         <f>base!B610</f>
         <v>24.642681</v>
       </c>
-      <c r="D600" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F600" s="1" t="e">
+      <c r="D600">
+        <f>new!B610</f>
+        <v>24.642681</v>
+      </c>
+      <c r="F600" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="14.25" customHeight="1">
@@ -11120,13 +11136,13 @@
         <f>base!B611</f>
         <v>326.96834899999999</v>
       </c>
-      <c r="D601" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F601" s="1" t="e">
+      <c r="D601">
+        <f>new!B611</f>
+        <v>326.96834899999999</v>
+      </c>
+      <c r="F601" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -11138,13 +11154,13 @@
         <f>base!B612</f>
         <v>323.79225500000001</v>
       </c>
-      <c r="D602" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F602" s="1" t="e">
+      <c r="D602">
+        <f>new!B612</f>
+        <v>323.79225500000001</v>
+      </c>
+      <c r="F602" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:6" ht="14.25" customHeight="1">
@@ -11156,13 +11172,13 @@
         <f>base!B613</f>
         <v>24.711697000000001</v>
       </c>
-      <c r="D603" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F603" s="1" t="e">
+      <c r="D603">
+        <f>new!B613</f>
+        <v>24.711697000000001</v>
+      </c>
+      <c r="F603" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -11174,13 +11190,13 @@
         <f>base!B614</f>
         <v>14.626298</v>
       </c>
-      <c r="D604" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F604" s="1" t="e">
+      <c r="D604">
+        <f>new!B614</f>
+        <v>14.626298</v>
+      </c>
+      <c r="F604" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="14.25" customHeight="1">
@@ -11192,13 +11208,13 @@
         <f>base!B615</f>
         <v>20.263425000000002</v>
       </c>
-      <c r="D605" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F605" s="1" t="e">
+      <c r="D605">
+        <f>new!B615</f>
+        <v>20.263425000000002</v>
+      </c>
+      <c r="F605" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -11210,13 +11226,13 @@
         <f>base!B616</f>
         <v>4.0241449999999999</v>
       </c>
-      <c r="D606" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F606" s="1" t="e">
+      <c r="D606">
+        <f>new!B616</f>
+        <v>4.0241449999999999</v>
+      </c>
+      <c r="F606" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:6" ht="14.25" customHeight="1">
@@ -11228,13 +11244,13 @@
         <f>base!B617</f>
         <v>4.030958</v>
       </c>
-      <c r="D607" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F607" s="1" t="e">
+      <c r="D607">
+        <f>new!B617</f>
+        <v>4.030958</v>
+      </c>
+      <c r="F607" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -11246,13 +11262,13 @@
         <f>base!B618</f>
         <v>0.30604399999999998</v>
       </c>
-      <c r="D608" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F608" s="1" t="e">
+      <c r="D608">
+        <f>new!B618</f>
+        <v>0.30604399999999998</v>
+      </c>
+      <c r="F608" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:6" ht="14.25" customHeight="1">
@@ -11264,13 +11280,13 @@
         <f>base!B619</f>
         <v>5.1549050000000003</v>
       </c>
-      <c r="D609" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F609" s="1" t="e">
+      <c r="D609">
+        <f>new!B619</f>
+        <v>5.1549050000000003</v>
+      </c>
+      <c r="F609" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -11282,13 +11298,13 @@
         <f>base!B620</f>
         <v>18.539117999999998</v>
       </c>
-      <c r="D610" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F610" s="1" t="e">
+      <c r="D610">
+        <f>new!B620</f>
+        <v>18.539117999999998</v>
+      </c>
+      <c r="F610" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -11300,13 +11316,13 @@
         <f>base!B621</f>
         <v>18.528811999999999</v>
       </c>
-      <c r="D611" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F611" s="1" t="e">
+      <c r="D611">
+        <f>new!B621</f>
+        <v>18.528811999999999</v>
+      </c>
+      <c r="F611" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -11318,13 +11334,13 @@
         <f>base!B622</f>
         <v>16.694490999999999</v>
       </c>
-      <c r="D612" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F612" s="1" t="e">
+      <c r="D612">
+        <f>new!B622</f>
+        <v>16.694490999999999</v>
+      </c>
+      <c r="F612" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -11336,13 +11352,13 @@
         <f>base!B623</f>
         <v>500000</v>
       </c>
-      <c r="D613" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F613" s="1" t="e">
+      <c r="D613">
+        <f>new!B623</f>
+        <v>500000</v>
+      </c>
+      <c r="F613" s="1">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -11361,13 +11377,13 @@
         <f>base!B625</f>
         <v>288.78364299999998</v>
       </c>
-      <c r="D615" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F615" s="1" t="e">
+      <c r="D615">
+        <f>new!B625</f>
+        <v>288.78364299999998</v>
+      </c>
+      <c r="F615" s="1">
         <f t="shared" ref="F615:F645" si="54">IF(B615=0, "", $D615/$B615-1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -11379,13 +11395,13 @@
         <f>base!B626</f>
         <v>27.467497000000002</v>
       </c>
-      <c r="D616" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F616" s="1" t="e">
+      <c r="D616">
+        <f>new!B626</f>
+        <v>27.467497000000002</v>
+      </c>
+      <c r="F616" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:6" ht="14.25" customHeight="1">
@@ -11397,13 +11413,13 @@
         <f>base!B627</f>
         <v>18.989746</v>
       </c>
-      <c r="D617" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F617" s="1" t="e">
+      <c r="D617">
+        <f>new!B627</f>
+        <v>18.989746</v>
+      </c>
+      <c r="F617" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -11415,13 +11431,13 @@
         <f>base!B628</f>
         <v>33.500838000000002</v>
       </c>
-      <c r="D618" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F618" s="1" t="e">
+      <c r="D618">
+        <f>new!B628</f>
+        <v>33.500838000000002</v>
+      </c>
+      <c r="F618" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:6" ht="14.25" customHeight="1">
@@ -11433,13 +11449,13 @@
         <f>base!B629</f>
         <v>6.7168190000000001</v>
       </c>
-      <c r="D619" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F619" s="1" t="e">
+      <c r="D619">
+        <f>new!B629</f>
+        <v>6.7168190000000001</v>
+      </c>
+      <c r="F619" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -11451,13 +11467,13 @@
         <f>base!B630</f>
         <v>6.6551309999999999</v>
       </c>
-      <c r="D620" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F620" s="1" t="e">
+      <c r="D620">
+        <f>new!B630</f>
+        <v>6.6551309999999999</v>
+      </c>
+      <c r="F620" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="14.25" customHeight="1">
@@ -11469,13 +11485,13 @@
         <f>base!B631</f>
         <v>0.461808</v>
       </c>
-      <c r="D621" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F621" s="1" t="e">
+      <c r="D621">
+        <f>new!B631</f>
+        <v>0.461808</v>
+      </c>
+      <c r="F621" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -11487,13 +11503,13 @@
         <f>base!B632</f>
         <v>8.7550340000000002</v>
       </c>
-      <c r="D622" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F622" s="1" t="e">
+      <c r="D622">
+        <f>new!B632</f>
+        <v>8.7550340000000002</v>
+      </c>
+      <c r="F622" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:6" ht="14.25" customHeight="1">
@@ -11505,13 +11521,13 @@
         <f>base!B633</f>
         <v>25</v>
       </c>
-      <c r="D623" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F623" s="1" t="e">
+      <c r="D623">
+        <f>new!B633</f>
+        <v>25</v>
+      </c>
+      <c r="F623" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -11523,13 +11539,13 @@
         <f>base!B634</f>
         <v>10.407992999999999</v>
       </c>
-      <c r="D624" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F624" s="1" t="e">
+      <c r="D624">
+        <f>new!B634</f>
+        <v>10.407992999999999</v>
+      </c>
+      <c r="F624" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:6" ht="14.25" customHeight="1">
@@ -11541,13 +11557,13 @@
         <f>base!B635</f>
         <v>3.9583059999999999</v>
       </c>
-      <c r="D625" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F625" s="1" t="e">
+      <c r="D625">
+        <f>new!B635</f>
+        <v>3.9583059999999999</v>
+      </c>
+      <c r="F625" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -11559,13 +11575,13 @@
         <f>base!B636</f>
         <v>0.41666700000000001</v>
       </c>
-      <c r="D626" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F626" s="1" t="e">
+      <c r="D626">
+        <f>new!B636</f>
+        <v>0.41666700000000001</v>
+      </c>
+      <c r="F626" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:6" ht="15.75" customHeight="1">
@@ -11577,13 +11593,13 @@
         <f>base!B637</f>
         <v>6.3646969999999996</v>
       </c>
-      <c r="D627" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F627" s="1" t="e">
+      <c r="D627">
+        <f>new!B637</f>
+        <v>6.3646969999999996</v>
+      </c>
+      <c r="F627" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:6">
@@ -11595,13 +11611,13 @@
         <f>base!B638</f>
         <v>6.7349139999999998</v>
       </c>
-      <c r="D628" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F628" s="1" t="e">
+      <c r="D628">
+        <f>new!B638</f>
+        <v>6.7349139999999998</v>
+      </c>
+      <c r="F628" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:6" ht="14.25" customHeight="1">
@@ -11613,13 +11629,13 @@
         <f>base!B639</f>
         <v>33.512064000000002</v>
       </c>
-      <c r="D629" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F629" s="1" t="e">
+      <c r="D629">
+        <f>new!B639</f>
+        <v>33.512064000000002</v>
+      </c>
+      <c r="F629" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -11631,13 +11647,13 @@
         <f>base!B640</f>
         <v>18.285713999999999</v>
       </c>
-      <c r="D630" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F630" s="1" t="e">
+      <c r="D630">
+        <f>new!B640</f>
+        <v>18.285713999999999</v>
+      </c>
+      <c r="F630" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:6" ht="14.25" customHeight="1">
@@ -11649,13 +11665,13 @@
         <f>base!B641</f>
         <v>0.46274900000000002</v>
       </c>
-      <c r="D631" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F631" s="1" t="e">
+      <c r="D631">
+        <f>new!B641</f>
+        <v>0.46274900000000002</v>
+      </c>
+      <c r="F631" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:6">
@@ -11667,13 +11683,13 @@
         <f>base!B642</f>
         <v>27.389755999999998</v>
       </c>
-      <c r="D632" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F632" s="1" t="e">
+      <c r="D632">
+        <f>new!B642</f>
+        <v>27.389755999999998</v>
+      </c>
+      <c r="F632" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:6" ht="14.25" customHeight="1">
@@ -11685,13 +11701,13 @@
         <f>base!B643</f>
         <v>289.51939800000002</v>
       </c>
-      <c r="D633" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F633" s="1" t="e">
+      <c r="D633">
+        <f>new!B643</f>
+        <v>289.51939800000002</v>
+      </c>
+      <c r="F633" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:6">
@@ -11703,13 +11719,13 @@
         <f>base!B644</f>
         <v>283.22193299999998</v>
       </c>
-      <c r="D634" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F634" s="1" t="e">
+      <c r="D634">
+        <f>new!B644</f>
+        <v>283.22193299999998</v>
+      </c>
+      <c r="F634" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:6" ht="14.25" customHeight="1">
@@ -11721,13 +11737,13 @@
         <f>base!B645</f>
         <v>27.492668999999999</v>
       </c>
-      <c r="D635" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F635" s="1" t="e">
+      <c r="D635">
+        <f>new!B645</f>
+        <v>27.492668999999999</v>
+      </c>
+      <c r="F635" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:6">
@@ -11739,13 +11755,13 @@
         <f>base!B646</f>
         <v>18.975332000000002</v>
       </c>
-      <c r="D636" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F636" s="1" t="e">
+      <c r="D636">
+        <f>new!B646</f>
+        <v>18.975332000000002</v>
+      </c>
+      <c r="F636" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:6" ht="14.25" customHeight="1">
@@ -11757,13 +11773,13 @@
         <f>base!B647</f>
         <v>33.534540999999997</v>
       </c>
-      <c r="D637" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F637" s="1" t="e">
+      <c r="D637">
+        <f>new!B647</f>
+        <v>33.534540999999997</v>
+      </c>
+      <c r="F637" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:6">
@@ -11775,13 +11791,13 @@
         <f>base!B648</f>
         <v>6.7750680000000001</v>
       </c>
-      <c r="D638" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F638" s="1" t="e">
+      <c r="D638">
+        <f>new!B648</f>
+        <v>6.7750680000000001</v>
+      </c>
+      <c r="F638" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:6" ht="14.25" customHeight="1">
@@ -11793,13 +11809,13 @@
         <f>base!B649</f>
         <v>6.7467280000000001</v>
       </c>
-      <c r="D639" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F639" s="1" t="e">
+      <c r="D639">
+        <f>new!B649</f>
+        <v>6.7467280000000001</v>
+      </c>
+      <c r="F639" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -11811,13 +11827,13 @@
         <f>base!B650</f>
         <v>0.45884200000000003</v>
       </c>
-      <c r="D640" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F640" s="1" t="e">
+      <c r="D640">
+        <f>new!B650</f>
+        <v>0.45884200000000003</v>
+      </c>
+      <c r="F640" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:6" ht="14.25" customHeight="1">
@@ -11829,13 +11845,13 @@
         <f>base!B651</f>
         <v>8.7565670000000004</v>
       </c>
-      <c r="D641" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F641" s="1" t="e">
+      <c r="D641">
+        <f>new!B651</f>
+        <v>8.7565670000000004</v>
+      </c>
+      <c r="F641" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:6">
@@ -11847,13 +11863,13 @@
         <f>base!B652</f>
         <v>20.942408</v>
       </c>
-      <c r="D642" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F642" s="1" t="e">
+      <c r="D642">
+        <f>new!B652</f>
+        <v>20.942408</v>
+      </c>
+      <c r="F642" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:6">
@@ -11865,13 +11881,13 @@
         <f>base!B653</f>
         <v>20.751193000000001</v>
       </c>
-      <c r="D643" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F643" s="1" t="e">
+      <c r="D643">
+        <f>new!B653</f>
+        <v>20.751193000000001</v>
+      </c>
+      <c r="F643" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -11883,13 +11899,13 @@
         <f>base!B654</f>
         <v>11.741683</v>
       </c>
-      <c r="D644" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F644" s="1" t="e">
+      <c r="D644">
+        <f>new!B654</f>
+        <v>11.741683</v>
+      </c>
+      <c r="F644" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -11901,13 +11917,13 @@
         <f>base!B655</f>
         <v>500000</v>
       </c>
-      <c r="D645" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F645" s="1" t="e">
+      <c r="D645">
+        <f>new!B655</f>
+        <v>500000</v>
+      </c>
+      <c r="F645" s="1">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -11926,13 +11942,13 @@
         <f>base!B657</f>
         <v>275.93819000000002</v>
       </c>
-      <c r="D647" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F647" s="1" t="e">
+      <c r="D647">
+        <f>new!B657</f>
+        <v>275.93819000000002</v>
+      </c>
+      <c r="F647" s="1">
         <f t="shared" ref="F647:F677" si="55">IF(B647=0, "", $D647/$B647-1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -11944,13 +11960,13 @@
         <f>base!B658</f>
         <v>27.417290999999999</v>
       </c>
-      <c r="D648" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F648" s="1" t="e">
+      <c r="D648">
+        <f>new!B658</f>
+        <v>27.417290999999999</v>
+      </c>
+      <c r="F648" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:6" ht="14.25" customHeight="1">
@@ -11962,13 +11978,13 @@
         <f>base!B659</f>
         <v>24.931439000000001</v>
       </c>
-      <c r="D649" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F649" s="1" t="e">
+      <c r="D649">
+        <f>new!B659</f>
+        <v>24.931439000000001</v>
+      </c>
+      <c r="F649" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -11980,13 +11996,13 @@
         <f>base!B660</f>
         <v>33.145508999999997</v>
       </c>
-      <c r="D650" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F650" s="1" t="e">
+      <c r="D650">
+        <f>new!B660</f>
+        <v>33.145508999999997</v>
+      </c>
+      <c r="F650" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:6" ht="14.25" customHeight="1">
@@ -11998,13 +12014,13 @@
         <f>base!B661</f>
         <v>7.2243899999999996</v>
       </c>
-      <c r="D651" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F651" s="1" t="e">
+      <c r="D651">
+        <f>new!B661</f>
+        <v>7.2243899999999996</v>
+      </c>
+      <c r="F651" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -12016,13 +12032,13 @@
         <f>base!B662</f>
         <v>7.6417549999999999</v>
       </c>
-      <c r="D652" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F652" s="1" t="e">
+      <c r="D652">
+        <f>new!B662</f>
+        <v>7.6417549999999999</v>
+      </c>
+      <c r="F652" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:6" ht="14.25" customHeight="1">
@@ -12034,13 +12050,13 @@
         <f>base!B663</f>
         <v>0.48153299999999999</v>
       </c>
-      <c r="D653" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F653" s="1" t="e">
+      <c r="D653">
+        <f>new!B663</f>
+        <v>0.48153299999999999</v>
+      </c>
+      <c r="F653" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:6">
@@ -12052,13 +12068,13 @@
         <f>base!B664</f>
         <v>8.7328620000000008</v>
       </c>
-      <c r="D654" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F654" s="1" t="e">
+      <c r="D654">
+        <f>new!B664</f>
+        <v>8.7328620000000008</v>
+      </c>
+      <c r="F654" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:6" ht="14.25" customHeight="1">
@@ -12070,13 +12086,13 @@
         <f>base!B665</f>
         <v>24.857071999999999</v>
       </c>
-      <c r="D655" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F655" s="1" t="e">
+      <c r="D655">
+        <f>new!B665</f>
+        <v>24.857071999999999</v>
+      </c>
+      <c r="F655" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:6">
@@ -12088,13 +12104,13 @@
         <f>base!B666</f>
         <v>10.343401</v>
       </c>
-      <c r="D656" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F656" s="1" t="e">
+      <c r="D656">
+        <f>new!B666</f>
+        <v>10.343401</v>
+      </c>
+      <c r="F656" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:6" ht="14.25" customHeight="1">
@@ -12106,13 +12122,13 @@
         <f>base!B667</f>
         <v>3.8867660000000002</v>
       </c>
-      <c r="D657" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F657" s="1" t="e">
+      <c r="D657">
+        <f>new!B667</f>
+        <v>3.8867660000000002</v>
+      </c>
+      <c r="F657" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -12124,13 +12140,13 @@
         <f>base!B668</f>
         <v>0.468165</v>
       </c>
-      <c r="D658" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F658" s="1" t="e">
+      <c r="D658">
+        <f>new!B668</f>
+        <v>0.468165</v>
+      </c>
+      <c r="F658" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:6" ht="15.75" customHeight="1">
@@ -12142,13 +12158,13 @@
         <f>base!B669</f>
         <v>6.3284459999999996</v>
       </c>
-      <c r="D659" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F659" s="1" t="e">
+      <c r="D659">
+        <f>new!B669</f>
+        <v>6.3284459999999996</v>
+      </c>
+      <c r="F659" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:6">
@@ -12160,13 +12176,13 @@
         <f>base!B670</f>
         <v>7.2379850000000001</v>
       </c>
-      <c r="D660" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F660" s="1" t="e">
+      <c r="D660">
+        <f>new!B670</f>
+        <v>7.2379850000000001</v>
+      </c>
+      <c r="F660" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:6" ht="14.25" customHeight="1">
@@ -12178,13 +12194,13 @@
         <f>base!B671</f>
         <v>33.096144000000002</v>
       </c>
-      <c r="D661" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F661" s="1" t="e">
+      <c r="D661">
+        <f>new!B671</f>
+        <v>33.096144000000002</v>
+      </c>
+      <c r="F661" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -12196,13 +12212,13 @@
         <f>base!B672</f>
         <v>18.285713999999999</v>
       </c>
-      <c r="D662" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F662" s="1" t="e">
+      <c r="D662">
+        <f>new!B672</f>
+        <v>18.285713999999999</v>
+      </c>
+      <c r="F662" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:6" ht="14.25" customHeight="1">
@@ -12214,13 +12230,13 @@
         <f>base!B673</f>
         <v>0.488759</v>
       </c>
-      <c r="D663" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F663" s="1" t="e">
+      <c r="D663">
+        <f>new!B673</f>
+        <v>0.488759</v>
+      </c>
+      <c r="F663" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -12232,13 +12248,13 @@
         <f>base!B674</f>
         <v>27.337343000000001</v>
       </c>
-      <c r="D664" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F664" s="1" t="e">
+      <c r="D664">
+        <f>new!B674</f>
+        <v>27.337343000000001</v>
+      </c>
+      <c r="F664" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:6" ht="14.25" customHeight="1">
@@ -12250,13 +12266,13 @@
         <f>base!B675</f>
         <v>275.99911700000001</v>
       </c>
-      <c r="D665" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F665" s="1" t="e">
+      <c r="D665">
+        <f>new!B675</f>
+        <v>275.99911700000001</v>
+      </c>
+      <c r="F665" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:6">
@@ -12268,13 +12284,13 @@
         <f>base!B676</f>
         <v>271.76867099999998</v>
       </c>
-      <c r="D666" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F666" s="1" t="e">
+      <c r="D666">
+        <f>new!B676</f>
+        <v>271.76867099999998</v>
+      </c>
+      <c r="F666" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:6" ht="14.25" customHeight="1">
@@ -12286,13 +12302,13 @@
         <f>base!B677</f>
         <v>27.397259999999999</v>
       </c>
-      <c r="D667" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F667" s="1" t="e">
+      <c r="D667">
+        <f>new!B677</f>
+        <v>27.397259999999999</v>
+      </c>
+      <c r="F667" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:6">
@@ -12304,13 +12320,13 @@
         <f>base!B678</f>
         <v>25.297243000000002</v>
       </c>
-      <c r="D668" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F668" s="1" t="e">
+      <c r="D668">
+        <f>new!B678</f>
+        <v>25.297243000000002</v>
+      </c>
+      <c r="F668" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:6" ht="14.25" customHeight="1">
@@ -12322,13 +12338,13 @@
         <f>base!B679</f>
         <v>33.134526000000001</v>
       </c>
-      <c r="D669" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F669" s="1" t="e">
+      <c r="D669">
+        <f>new!B679</f>
+        <v>33.134526000000001</v>
+      </c>
+      <c r="F669" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -12340,13 +12356,13 @@
         <f>base!B680</f>
         <v>7.5494490000000001</v>
       </c>
-      <c r="D670" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F670" s="1" t="e">
+      <c r="D670">
+        <f>new!B680</f>
+        <v>7.5494490000000001</v>
+      </c>
+      <c r="F670" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:6" ht="14.25" customHeight="1">
@@ -12358,13 +12374,13 @@
         <f>base!B681</f>
         <v>7.4404760000000003</v>
       </c>
-      <c r="D671" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F671" s="1" t="e">
+      <c r="D671">
+        <f>new!B681</f>
+        <v>7.4404760000000003</v>
+      </c>
+      <c r="F671" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:6">
@@ -12376,13 +12392,13 @@
         <f>base!B682</f>
         <v>0.47689399999999998</v>
       </c>
-      <c r="D672" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F672" s="1" t="e">
+      <c r="D672">
+        <f>new!B682</f>
+        <v>0.47689399999999998</v>
+      </c>
+      <c r="F672" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:6" ht="14.25" customHeight="1">
@@ -12394,13 +12410,13 @@
         <f>base!B683</f>
         <v>8.7366770000000002</v>
       </c>
-      <c r="D673" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F673" s="1" t="e">
+      <c r="D673">
+        <f>new!B683</f>
+        <v>8.7366770000000002</v>
+      </c>
+      <c r="F673" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:6">
@@ -12412,13 +12428,13 @@
         <f>base!B684</f>
         <v>21.862701999999999</v>
       </c>
-      <c r="D674" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F674" s="1" t="e">
+      <c r="D674">
+        <f>new!B684</f>
+        <v>21.862701999999999</v>
+      </c>
+      <c r="F674" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -12430,13 +12446,13 @@
         <f>base!B685</f>
         <v>22.341376</v>
       </c>
-      <c r="D675" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F675" s="1" t="e">
+      <c r="D675">
+        <f>new!B685</f>
+        <v>22.341376</v>
+      </c>
+      <c r="F675" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -12448,13 +12464,13 @@
         <f>base!B686</f>
         <v>8.2191779999999994</v>
       </c>
-      <c r="D676" t="e">
-        <f>new!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F676" s="1" t="e">
+      <c r="D676">
+        <f>new!B686</f>
+        <v>8.2191779999999994</v>
+      </c>
+      <c r="F676" s="1">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -12467,7 +12483,7 @@
         <v>500000</v>
       </c>
       <c r="D677">
-        <f>new!B558</f>
+        <f>new!B688</f>
         <v>0</v>
       </c>
       <c r="F677" s="1">
@@ -18997,7 +19013,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:E556"/>
+  <dimension ref="A4:E687"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -19005,10 +19021,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -23641,12 +23657,12 @@
         <v>414.25740000000002</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:4">
       <c r="A545" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:4">
       <c r="A546" t="s">
         <v>2</v>
       </c>
@@ -23657,7 +23673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:4">
       <c r="A547" t="s">
         <v>41</v>
       </c>
@@ -23665,7 +23681,7 @@
         <v>1110.3844999999999</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:4">
       <c r="A548" t="s">
         <v>42</v>
       </c>
@@ -23673,7 +23689,7 @@
         <v>320.93380000000002</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:4">
       <c r="A549" t="s">
         <v>43</v>
       </c>
@@ -23681,7 +23697,7 @@
         <v>455.8365</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:4">
       <c r="A550" t="s">
         <v>44</v>
       </c>
@@ -23689,12 +23705,12 @@
         <v>413.93880000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:4">
       <c r="A551" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:4">
       <c r="A552" t="s">
         <v>2</v>
       </c>
@@ -23705,7 +23721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:4">
       <c r="A553" t="s">
         <v>41</v>
       </c>
@@ -23713,7 +23729,7 @@
         <v>1110.0264</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:4">
       <c r="A554" t="s">
         <v>42</v>
       </c>
@@ -23721,7 +23737,7 @@
         <v>321.19490000000002</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:4">
       <c r="A555" t="s">
         <v>43</v>
       </c>
@@ -23729,12 +23745,1069 @@
         <v>455.63330000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:4">
       <c r="A556" t="s">
         <v>44</v>
       </c>
       <c r="B556">
         <v>414.46890000000002</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" t="s">
+        <v>0</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1</v>
+      </c>
+      <c r="C560" t="s">
+        <v>68</v>
+      </c>
+      <c r="D560" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" t="s">
+        <v>10</v>
+      </c>
+      <c r="B561">
+        <v>322.49741999999998</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" t="s">
+        <v>11</v>
+      </c>
+      <c r="B562">
+        <v>24.578075999999999</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" t="s">
+        <v>12</v>
+      </c>
+      <c r="B563">
+        <v>14.649868</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" t="s">
+        <v>13</v>
+      </c>
+      <c r="B564">
+        <v>20.242915</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" t="s">
+        <v>14</v>
+      </c>
+      <c r="B565">
+        <v>4.0241449999999999</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" t="s">
+        <v>15</v>
+      </c>
+      <c r="B566">
+        <v>4.0306329999999999</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" t="s">
+        <v>16</v>
+      </c>
+      <c r="B567">
+        <v>0.30395100000000003</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" t="s">
+        <v>17</v>
+      </c>
+      <c r="B568">
+        <v>5.1549050000000003</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" t="s">
+        <v>18</v>
+      </c>
+      <c r="B569">
+        <v>31.877590000000001</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" t="s">
+        <v>19</v>
+      </c>
+      <c r="B570">
+        <v>16.903313000000001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" t="s">
+        <v>20</v>
+      </c>
+      <c r="B571">
+        <v>4.8320850000000002</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" t="s">
+        <v>21</v>
+      </c>
+      <c r="B572">
+        <v>0.44484000000000001</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" t="s">
+        <v>22</v>
+      </c>
+      <c r="B573">
+        <v>6.4963189999999997</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" t="s">
+        <v>23</v>
+      </c>
+      <c r="B574">
+        <v>8.01539</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" t="s">
+        <v>24</v>
+      </c>
+      <c r="B575">
+        <v>33.350008000000003</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" t="s">
+        <v>25</v>
+      </c>
+      <c r="B576">
+        <v>36.446469</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="A577" t="s">
+        <v>26</v>
+      </c>
+      <c r="B577">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" t="s">
+        <v>27</v>
+      </c>
+      <c r="B578">
+        <v>27.457440999999999</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" t="s">
+        <v>28</v>
+      </c>
+      <c r="B579">
+        <v>323.16442599999999</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" t="s">
+        <v>29</v>
+      </c>
+      <c r="B580">
+        <v>321.17163399999998</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" t="s">
+        <v>30</v>
+      </c>
+      <c r="B581">
+        <v>24.630541999999998</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" t="s">
+        <v>31</v>
+      </c>
+      <c r="B582">
+        <v>14.647722</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="A583" t="s">
+        <v>32</v>
+      </c>
+      <c r="B583">
+        <v>20.275749999999999</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" t="s">
+        <v>33</v>
+      </c>
+      <c r="B584">
+        <v>4.022526</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" t="s">
+        <v>34</v>
+      </c>
+      <c r="B585">
+        <v>4.0316080000000003</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" t="s">
+        <v>35</v>
+      </c>
+      <c r="B586">
+        <v>0.29961599999999999</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" t="s">
+        <v>36</v>
+      </c>
+      <c r="B587">
+        <v>5.1551710000000002</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" t="s">
+        <v>37</v>
+      </c>
+      <c r="B588">
+        <v>18.528811999999999</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" t="s">
+        <v>38</v>
+      </c>
+      <c r="B589">
+        <v>18.535681</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" t="s">
+        <v>39</v>
+      </c>
+      <c r="B590">
+        <v>16.675930999999999</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" t="s">
+        <v>40</v>
+      </c>
+      <c r="B591">
+        <v>423728.81355899997</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" t="s">
+        <v>0</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1</v>
+      </c>
+      <c r="C592" t="s">
+        <v>40</v>
+      </c>
+      <c r="D592" t="s">
+        <v>62</v>
+      </c>
+      <c r="E592" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>10</v>
+      </c>
+      <c r="B593">
+        <v>324.12809499999997</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>11</v>
+      </c>
+      <c r="B594">
+        <v>24.521823999999999</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>12</v>
+      </c>
+      <c r="B595">
+        <v>14.65631</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>13</v>
+      </c>
+      <c r="B596">
+        <v>20.281918999999998</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>14</v>
+      </c>
+      <c r="B597">
+        <v>4.0241449999999999</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>15</v>
+      </c>
+      <c r="B598">
+        <v>4.0312830000000002</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>16</v>
+      </c>
+      <c r="B599">
+        <v>0.30119600000000002</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
+        <v>17</v>
+      </c>
+      <c r="B600">
+        <v>5.1549050000000003</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
+        <v>18</v>
+      </c>
+      <c r="B601">
+        <v>22.706630000000001</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
+        <v>19</v>
+      </c>
+      <c r="B602">
+        <v>9.9403579999999998</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
+        <v>20</v>
+      </c>
+      <c r="B603">
+        <v>2.509725</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
+        <v>21</v>
+      </c>
+      <c r="B604">
+        <v>0.27777800000000002</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
+        <v>22</v>
+      </c>
+      <c r="B605">
+        <v>3.3568310000000001</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" t="s">
+        <v>23</v>
+      </c>
+      <c r="B606">
+        <v>4.0246310000000003</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" t="s">
+        <v>24</v>
+      </c>
+      <c r="B607">
+        <v>20.265478000000002</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" t="s">
+        <v>25</v>
+      </c>
+      <c r="B608">
+        <v>18.26484</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" t="s">
+        <v>26</v>
+      </c>
+      <c r="B609">
+        <v>0.303367</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" t="s">
+        <v>27</v>
+      </c>
+      <c r="B610">
+        <v>24.642681</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" t="s">
+        <v>28</v>
+      </c>
+      <c r="B611">
+        <v>326.96834899999999</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" t="s">
+        <v>29</v>
+      </c>
+      <c r="B612">
+        <v>323.79225500000001</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" t="s">
+        <v>30</v>
+      </c>
+      <c r="B613">
+        <v>24.711697000000001</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" t="s">
+        <v>31</v>
+      </c>
+      <c r="B614">
+        <v>14.626298</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" t="s">
+        <v>32</v>
+      </c>
+      <c r="B615">
+        <v>20.263425000000002</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" t="s">
+        <v>33</v>
+      </c>
+      <c r="B616">
+        <v>4.0241449999999999</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" t="s">
+        <v>34</v>
+      </c>
+      <c r="B617">
+        <v>4.030958</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" t="s">
+        <v>35</v>
+      </c>
+      <c r="B618">
+        <v>0.30604399999999998</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" t="s">
+        <v>36</v>
+      </c>
+      <c r="B619">
+        <v>5.1549050000000003</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" t="s">
+        <v>37</v>
+      </c>
+      <c r="B620">
+        <v>18.539117999999998</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" t="s">
+        <v>38</v>
+      </c>
+      <c r="B621">
+        <v>18.528811999999999</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" t="s">
+        <v>39</v>
+      </c>
+      <c r="B622">
+        <v>16.694490999999999</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" t="s">
+        <v>40</v>
+      </c>
+      <c r="B623">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" t="s">
+        <v>0</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1</v>
+      </c>
+      <c r="C624" t="s">
+        <v>40</v>
+      </c>
+      <c r="D624" t="s">
+        <v>62</v>
+      </c>
+      <c r="E624" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" t="s">
+        <v>10</v>
+      </c>
+      <c r="B625">
+        <v>288.78364299999998</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" t="s">
+        <v>11</v>
+      </c>
+      <c r="B626">
+        <v>27.467497000000002</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" t="s">
+        <v>12</v>
+      </c>
+      <c r="B627">
+        <v>18.989746</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" t="s">
+        <v>13</v>
+      </c>
+      <c r="B628">
+        <v>33.500838000000002</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" t="s">
+        <v>14</v>
+      </c>
+      <c r="B629">
+        <v>6.7168190000000001</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" t="s">
+        <v>15</v>
+      </c>
+      <c r="B630">
+        <v>6.6551309999999999</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" t="s">
+        <v>16</v>
+      </c>
+      <c r="B631">
+        <v>0.461808</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" t="s">
+        <v>17</v>
+      </c>
+      <c r="B632">
+        <v>8.7550340000000002</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" t="s">
+        <v>18</v>
+      </c>
+      <c r="B633">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" t="s">
+        <v>19</v>
+      </c>
+      <c r="B634">
+        <v>10.407992999999999</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" t="s">
+        <v>20</v>
+      </c>
+      <c r="B635">
+        <v>3.9583059999999999</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" t="s">
+        <v>21</v>
+      </c>
+      <c r="B636">
+        <v>0.41666700000000001</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" t="s">
+        <v>22</v>
+      </c>
+      <c r="B637">
+        <v>6.3646969999999996</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" t="s">
+        <v>23</v>
+      </c>
+      <c r="B638">
+        <v>6.7349139999999998</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" t="s">
+        <v>24</v>
+      </c>
+      <c r="B639">
+        <v>33.512064000000002</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" t="s">
+        <v>25</v>
+      </c>
+      <c r="B640">
+        <v>18.285713999999999</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" t="s">
+        <v>26</v>
+      </c>
+      <c r="B641">
+        <v>0.46274900000000002</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" t="s">
+        <v>27</v>
+      </c>
+      <c r="B642">
+        <v>27.389755999999998</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" t="s">
+        <v>28</v>
+      </c>
+      <c r="B643">
+        <v>289.51939800000002</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" t="s">
+        <v>29</v>
+      </c>
+      <c r="B644">
+        <v>283.22193299999998</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="A645" t="s">
+        <v>30</v>
+      </c>
+      <c r="B645">
+        <v>27.492668999999999</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="A646" t="s">
+        <v>31</v>
+      </c>
+      <c r="B646">
+        <v>18.975332000000002</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5">
+      <c r="A647" t="s">
+        <v>32</v>
+      </c>
+      <c r="B647">
+        <v>33.534540999999997</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5">
+      <c r="A648" t="s">
+        <v>33</v>
+      </c>
+      <c r="B648">
+        <v>6.7750680000000001</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="A649" t="s">
+        <v>34</v>
+      </c>
+      <c r="B649">
+        <v>6.7467280000000001</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5">
+      <c r="A650" t="s">
+        <v>35</v>
+      </c>
+      <c r="B650">
+        <v>0.45884200000000003</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5">
+      <c r="A651" t="s">
+        <v>36</v>
+      </c>
+      <c r="B651">
+        <v>8.7565670000000004</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5">
+      <c r="A652" t="s">
+        <v>37</v>
+      </c>
+      <c r="B652">
+        <v>20.942408</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="A653" t="s">
+        <v>38</v>
+      </c>
+      <c r="B653">
+        <v>20.751193000000001</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="A654" t="s">
+        <v>39</v>
+      </c>
+      <c r="B654">
+        <v>11.741683</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" t="s">
+        <v>40</v>
+      </c>
+      <c r="B655">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" t="s">
+        <v>0</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1</v>
+      </c>
+      <c r="C656" t="s">
+        <v>40</v>
+      </c>
+      <c r="D656" t="s">
+        <v>62</v>
+      </c>
+      <c r="E656" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" t="s">
+        <v>10</v>
+      </c>
+      <c r="B657">
+        <v>275.93819000000002</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" t="s">
+        <v>11</v>
+      </c>
+      <c r="B658">
+        <v>27.417290999999999</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" t="s">
+        <v>12</v>
+      </c>
+      <c r="B659">
+        <v>24.931439000000001</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" t="s">
+        <v>13</v>
+      </c>
+      <c r="B660">
+        <v>33.145508999999997</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" t="s">
+        <v>14</v>
+      </c>
+      <c r="B661">
+        <v>7.2243899999999996</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" t="s">
+        <v>15</v>
+      </c>
+      <c r="B662">
+        <v>7.6417549999999999</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" t="s">
+        <v>16</v>
+      </c>
+      <c r="B663">
+        <v>0.48153299999999999</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" t="s">
+        <v>17</v>
+      </c>
+      <c r="B664">
+        <v>8.7328620000000008</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" t="s">
+        <v>18</v>
+      </c>
+      <c r="B665">
+        <v>24.857071999999999</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" t="s">
+        <v>19</v>
+      </c>
+      <c r="B666">
+        <v>10.343401</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" t="s">
+        <v>20</v>
+      </c>
+      <c r="B667">
+        <v>3.8867660000000002</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" t="s">
+        <v>21</v>
+      </c>
+      <c r="B668">
+        <v>0.468165</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" t="s">
+        <v>22</v>
+      </c>
+      <c r="B669">
+        <v>6.3284459999999996</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" t="s">
+        <v>23</v>
+      </c>
+      <c r="B670">
+        <v>7.2379850000000001</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" t="s">
+        <v>24</v>
+      </c>
+      <c r="B671">
+        <v>33.096144000000002</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" t="s">
+        <v>25</v>
+      </c>
+      <c r="B672">
+        <v>18.285713999999999</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" t="s">
+        <v>26</v>
+      </c>
+      <c r="B673">
+        <v>0.488759</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" t="s">
+        <v>27</v>
+      </c>
+      <c r="B674">
+        <v>27.337343000000001</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" t="s">
+        <v>28</v>
+      </c>
+      <c r="B675">
+        <v>275.99911700000001</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" t="s">
+        <v>29</v>
+      </c>
+      <c r="B676">
+        <v>271.76867099999998</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" t="s">
+        <v>30</v>
+      </c>
+      <c r="B677">
+        <v>27.397259999999999</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" t="s">
+        <v>31</v>
+      </c>
+      <c r="B678">
+        <v>25.297243000000002</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" t="s">
+        <v>32</v>
+      </c>
+      <c r="B679">
+        <v>33.134526000000001</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" t="s">
+        <v>33</v>
+      </c>
+      <c r="B680">
+        <v>7.5494490000000001</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" t="s">
+        <v>34</v>
+      </c>
+      <c r="B681">
+        <v>7.4404760000000003</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" t="s">
+        <v>35</v>
+      </c>
+      <c r="B682">
+        <v>0.47689399999999998</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" t="s">
+        <v>36</v>
+      </c>
+      <c r="B683">
+        <v>8.7366770000000002</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" t="s">
+        <v>37</v>
+      </c>
+      <c r="B684">
+        <v>21.862701999999999</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" t="s">
+        <v>38</v>
+      </c>
+      <c r="B685">
+        <v>22.341376</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" t="s">
+        <v>39</v>
+      </c>
+      <c r="B686">
+        <v>8.2191779999999994</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" t="s">
+        <v>40</v>
+      </c>
+      <c r="B687">
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
